--- a/rank_analysis/1-2-analysis.xlsx
+++ b/rank_analysis/1-2-analysis.xlsx
@@ -383,12 +383,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>52.5</t>
+          <t>7.2</t>
         </is>
       </c>
     </row>
@@ -400,12 +400,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>107.0</t>
+          <t>23.65</t>
         </is>
       </c>
     </row>
@@ -417,12 +417,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>4.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>237.68</t>
+          <t>42.92</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>277.21</t>
+          <t>67.38</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>588.968</t>
+          <t>145.976</t>
         </is>
       </c>
     </row>
@@ -468,12 +468,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>613.812</t>
+          <t>130.276</t>
         </is>
       </c>
     </row>
